--- a/data/skogshage_planter.xlsx
+++ b/data/skogshage_planter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/athanasm/R-stuff/skogshage/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF46269E-6331-514A-A3AB-56DA1E3B579E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD38200-01F4-D34E-943B-73D4FCCFAD79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17020" xr2:uid="{6B61303F-6C63-1240-A2E5-762A1998790A}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1039,7 +1038,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1121,276 +1120,228 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
+      <c r="A2" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" t="s">
+        <v>150</v>
       </c>
       <c r="O2" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="R2" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
+      <c r="A3" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
       <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s">
-        <v>117</v>
-      </c>
-      <c r="P3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>205</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>205</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
       </c>
       <c r="P5" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="R5" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>1.5</v>
       </c>
       <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>101</v>
-      </c>
-      <c r="O6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>102</v>
+        <v>70</v>
+      </c>
+      <c r="P6" t="s">
+        <v>144</v>
       </c>
       <c r="R6" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" t="s">
-        <v>98</v>
+        <v>70</v>
+      </c>
+      <c r="P7" t="s">
+        <v>157</v>
       </c>
       <c r="R7" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>106</v>
+        <v>70</v>
+      </c>
+      <c r="P8" t="s">
+        <v>144</v>
       </c>
       <c r="R8" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>160</v>
+      </c>
+      <c r="P9" t="s">
+        <v>144</v>
+      </c>
+      <c r="R9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>106</v>
-      </c>
-      <c r="R9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10">
-        <v>25</v>
-      </c>
       <c r="D10">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1398,83 +1349,110 @@
       <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="J10" t="s">
-        <v>104</v>
+      <c r="J10">
+        <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>19</v>
+      </c>
+      <c r="O10" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
       </c>
       <c r="Q10" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="R10" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
+      <c r="A11" t="s">
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>1</v>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="Q11" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="R11" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
-      <c r="P12" t="s">
-        <v>115</v>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>102</v>
       </c>
       <c r="R12" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1482,1160 +1460,1184 @@
       <c r="H13" t="s">
         <v>18</v>
       </c>
+      <c r="J13" t="s">
+        <v>104</v>
+      </c>
       <c r="O13" t="s">
-        <v>117</v>
-      </c>
-      <c r="P13" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="R13" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="L14" t="s">
-        <v>45</v>
-      </c>
-      <c r="P14" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>106</v>
       </c>
       <c r="R14" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="L15" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>106</v>
       </c>
       <c r="R15" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
         <v>18</v>
       </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="L16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P16" t="s">
-        <v>26</v>
+      <c r="J16" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>110</v>
       </c>
       <c r="R16" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>7</v>
       </c>
       <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="L17" t="s">
-        <v>45</v>
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" t="s">
+        <v>117</v>
       </c>
       <c r="P17" t="s">
         <v>26</v>
       </c>
       <c r="R17" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="R18" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>45</v>
-      </c>
-      <c r="O19" t="s">
-        <v>120</v>
-      </c>
-      <c r="P19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>121</v>
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>146</v>
       </c>
       <c r="R19" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="L20" t="s">
-        <v>123</v>
-      </c>
-      <c r="P20" t="s">
-        <v>124</v>
+        <v>0.6</v>
+      </c>
+      <c r="D20">
+        <v>0.8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>92</v>
       </c>
       <c r="R20" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>45</v>
+        <v>92</v>
+      </c>
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>178</v>
       </c>
       <c r="R21" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>0.3</v>
       </c>
       <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="L22" t="s">
-        <v>45</v>
+        <v>0.3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+      <c r="O22" t="s">
+        <v>174</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>180</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>170</v>
       </c>
       <c r="R22" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="L23" t="s">
-        <v>45</v>
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" t="s">
+        <v>182</v>
       </c>
       <c r="P23" t="s">
-        <v>26</v>
+        <v>144</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>178</v>
       </c>
       <c r="R23" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>130</v>
-      </c>
-      <c r="L24" t="s">
-        <v>45</v>
+        <v>0.2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+      <c r="O24" t="s">
+        <v>185</v>
       </c>
       <c r="P24" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="Q24" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="R24" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="L25" t="s">
-        <v>45</v>
+        <v>92</v>
+      </c>
+      <c r="H25" t="s">
+        <v>92</v>
       </c>
       <c r="P25" t="s">
-        <v>26</v>
-      </c>
-      <c r="R25" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>45</v>
+        <v>0.3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>92</v>
       </c>
       <c r="P26" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="R26" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
-        <v>45</v>
-      </c>
-      <c r="P27" t="s">
-        <v>26</v>
+        <v>0.3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>178</v>
       </c>
       <c r="R27" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="L28" t="s">
-        <v>45</v>
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="R28" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C29">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="D29">
-        <v>4.5</v>
-      </c>
-      <c r="L29" t="s">
-        <v>45</v>
+        <v>0.3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>167</v>
       </c>
       <c r="P29" t="s">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="R29" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>205</v>
+      </c>
+      <c r="M30" t="s">
+        <v>30</v>
       </c>
       <c r="P30" t="s">
         <v>26</v>
       </c>
+      <c r="Q30" t="s">
+        <v>29</v>
+      </c>
       <c r="R30" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>205</v>
+      </c>
+      <c r="M31" t="s">
+        <v>31</v>
       </c>
       <c r="P31" t="s">
         <v>26</v>
       </c>
-      <c r="Q31" t="s">
-        <v>140</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>139</v>
+      <c r="R31" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>98</v>
       </c>
       <c r="P32" t="s">
-        <v>26</v>
+        <v>112</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>113</v>
       </c>
       <c r="R32" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="L33" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="P33" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="R33" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="L34" t="s">
+        <v>45</v>
+      </c>
+      <c r="P34" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="L35" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" t="s">
+        <v>26</v>
+      </c>
+      <c r="R35" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
         <v>18</v>
       </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
       <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="L36" t="s">
+        <v>45</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="R36" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>146</v>
+        <v>5</v>
+      </c>
+      <c r="L37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P37" t="s">
+        <v>26</v>
       </c>
       <c r="R37" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>0.5</v>
-      </c>
-      <c r="H38" t="s">
-        <v>70</v>
-      </c>
-      <c r="I38" t="s">
-        <v>153</v>
-      </c>
-      <c r="K38" t="s">
-        <v>150</v>
-      </c>
-      <c r="O38" t="s">
-        <v>149</v>
+        <v>45</v>
+      </c>
+      <c r="L38" t="s">
+        <v>45</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
-      </c>
-      <c r="R38" t="s">
-        <v>147</v>
+        <v>26</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C39">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>70</v>
-      </c>
-      <c r="I39" t="s">
-        <v>152</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" t="s">
+        <v>120</v>
+      </c>
+      <c r="P39" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>121</v>
       </c>
       <c r="R39" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C40">
-        <v>1.5</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" t="s">
-        <v>152</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="L40" t="s">
+        <v>123</v>
       </c>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="R40" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H41" t="s">
-        <v>70</v>
-      </c>
-      <c r="P41" t="s">
-        <v>144</v>
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>45</v>
       </c>
       <c r="R41" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C42">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
-        <v>70</v>
+        <v>10</v>
+      </c>
+      <c r="L42" t="s">
+        <v>45</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="R42" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C43">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>0.3</v>
-      </c>
-      <c r="H43" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>45</v>
       </c>
       <c r="P43" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="R43" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C44">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>0.5</v>
-      </c>
-      <c r="H44" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>130</v>
+      </c>
+      <c r="L44" t="s">
+        <v>45</v>
       </c>
       <c r="P44" t="s">
-        <v>144</v>
+        <v>26</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>131</v>
       </c>
       <c r="R44" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>160</v>
+        <v>2</v>
+      </c>
+      <c r="L45" t="s">
+        <v>45</v>
       </c>
       <c r="P45" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="R45" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C46">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>0.8</v>
-      </c>
-      <c r="H46" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>45</v>
+      </c>
+      <c r="P46" t="s">
+        <v>26</v>
       </c>
       <c r="R46" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C47">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
+      <c r="L47" t="s">
+        <v>45</v>
+      </c>
       <c r="P47" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="R47" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>57</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="L48" t="s">
+        <v>45</v>
+      </c>
+      <c r="P48" t="s">
+        <v>138</v>
+      </c>
+      <c r="R48" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="D49">
-        <v>0.5</v>
-      </c>
-      <c r="O49" t="s">
-        <v>164</v>
+        <v>4.5</v>
+      </c>
+      <c r="L49" t="s">
+        <v>45</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="R49" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
-      </c>
-      <c r="H50" t="s">
-        <v>167</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>45</v>
       </c>
       <c r="P50" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="R50" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C51">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>0.3</v>
+        <v>3</v>
+      </c>
+      <c r="L51" t="s">
+        <v>45</v>
       </c>
       <c r="P51" t="s">
-        <v>144</v>
-      </c>
-      <c r="R51" t="s">
-        <v>168</v>
+        <v>26</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>140</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>57</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>45</v>
+      </c>
+      <c r="P52" t="s">
+        <v>26</v>
+      </c>
+      <c r="R52" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>45</v>
       </c>
       <c r="P53" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="R53" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54">
-        <v>0.5</v>
-      </c>
-      <c r="O54" t="s">
-        <v>172</v>
-      </c>
-      <c r="P54" t="s">
-        <v>157</v>
-      </c>
-      <c r="R54" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55">
-        <v>0.5</v>
-      </c>
-      <c r="O55" t="s">
-        <v>174</v>
-      </c>
-      <c r="P55" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>170</v>
-      </c>
-      <c r="R55" t="s">
-        <v>173</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C56">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="D56">
-        <v>1.5</v>
+        <v>0.6</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="R56" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
-      </c>
-      <c r="H57" t="s">
-        <v>92</v>
-      </c>
-      <c r="P57" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>178</v>
-      </c>
-      <c r="R57" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C58">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>0.3</v>
-      </c>
-      <c r="H58" t="s">
-        <v>92</v>
+        <v>0.5</v>
       </c>
       <c r="O58" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="P58" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="R58" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C59">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>92</v>
-      </c>
-      <c r="O59" t="s">
-        <v>182</v>
+        <v>0.3</v>
       </c>
       <c r="P59" t="s">
         <v>144</v>
       </c>
-      <c r="Q59" t="s">
-        <v>178</v>
-      </c>
       <c r="R59" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60">
-        <v>0.8</v>
-      </c>
-      <c r="D60">
-        <v>0.3</v>
-      </c>
-      <c r="H60" t="s">
-        <v>167</v>
-      </c>
-      <c r="P60" t="s">
-        <v>184</v>
-      </c>
-      <c r="R60" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C61">
-        <v>0.2</v>
-      </c>
-      <c r="H61" t="s">
-        <v>92</v>
-      </c>
-      <c r="O61" t="s">
-        <v>185</v>
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
       </c>
       <c r="P61" t="s">
         <v>144</v>
       </c>
       <c r="Q61" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="R61" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
-      </c>
-      <c r="H62" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="C62">
+        <v>0.5</v>
+      </c>
+      <c r="O62" t="s">
+        <v>172</v>
       </c>
       <c r="P62" t="s">
-        <v>144</v>
+        <v>157</v>
+      </c>
+      <c r="R62" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C63">
-        <v>0.3</v>
-      </c>
-      <c r="D63">
-        <v>0.3</v>
-      </c>
-      <c r="H63" t="s">
-        <v>92</v>
+        <v>0.5</v>
+      </c>
+      <c r="O63" t="s">
+        <v>174</v>
       </c>
       <c r="P63" t="s">
-        <v>144</v>
+        <v>157</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>170</v>
       </c>
       <c r="R63" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C64">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="D64">
-        <v>0.3</v>
-      </c>
-      <c r="H64" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>178</v>
+        <v>1.5</v>
+      </c>
+      <c r="P64" t="s">
+        <v>157</v>
       </c>
       <c r="R64" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
@@ -2742,8 +2744,12 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
+    <sortCondition ref="H1:H69"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="R31" r:id="rId1" xr:uid="{FF83E598-92FF-A442-B96C-B3C2A8DFC272}"/>
+    <hyperlink ref="R51" r:id="rId1" xr:uid="{FF83E598-92FF-A442-B96C-B3C2A8DFC272}"/>
+    <hyperlink ref="R38" r:id="rId2" xr:uid="{62A838B4-EC30-EE44-90D2-675DE6762C27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/skogshage_planter.xlsx
+++ b/data/skogshage_planter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/athanasm/R-stuff/skogshage/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD38200-01F4-D34E-943B-73D4FCCFAD79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E565B487-AFDA-EF49-80FE-9C3C67AD0E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17020" xr2:uid="{6B61303F-6C63-1240-A2E5-762A1998790A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="207">
   <si>
     <t>url</t>
   </si>
@@ -54,18 +54,12 @@
     <t xml:space="preserve">distance </t>
   </si>
   <si>
-    <t xml:space="preserve">singular </t>
-  </si>
-  <si>
     <t>windbreaker</t>
   </si>
   <si>
     <t xml:space="preserve">systems </t>
   </si>
   <si>
-    <t xml:space="preserve">mineral_type </t>
-  </si>
-  <si>
     <t xml:space="preserve">bee_friendly </t>
   </si>
   <si>
@@ -405,9 +399,6 @@
     <t>https://www.efferus.no/Bambus.html</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
     <t>stop shoots</t>
   </si>
   <si>
@@ -492,12 +483,6 @@
     <t>https://www.efferus.no/Symphytum%20officinale.html</t>
   </si>
   <si>
-    <t>potassium</t>
-  </si>
-  <si>
-    <t>potassium, calcium</t>
-  </si>
-  <si>
     <t>http://www.efferus.no/Rume-sang.html</t>
   </si>
   <si>
@@ -651,9 +636,6 @@
     <t>http://www.efferus.no/Malus%20domestica.html</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>http://www.efferus.no/Pyrus%20communis.html</t>
   </si>
   <si>
@@ -664,6 +646,15 @@
   </si>
   <si>
     <t>http://www.efferus.no/dios-lotu.html</t>
+  </si>
+  <si>
+    <t>potassiumfix</t>
+  </si>
+  <si>
+    <t>potassiumfix, calciumfix</t>
+  </si>
+  <si>
+    <t>pollination</t>
   </si>
 </sst>
 </file>
@@ -1032,13 +1023,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C6F3E2-D8BC-6C40-9604-C54D9E439B5D}">
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1051,19 +1042,18 @@
     <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="63" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="63" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1080,51 +1070,48 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>111</v>
-      </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1133,30 +1120,27 @@
         <v>0.5</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K2" t="s">
-        <v>150</v>
+        <v>205</v>
+      </c>
+      <c r="J2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" t="s">
+        <v>146</v>
       </c>
       <c r="O2" t="s">
-        <v>149</v>
-      </c>
-      <c r="P2" t="s">
-        <v>148</v>
-      </c>
-      <c r="R2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>1.5</v>
@@ -1164,31 +1148,25 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="H3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="R3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>1.5</v>
@@ -1196,51 +1174,45 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="H4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>144</v>
-      </c>
-      <c r="R4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" t="s">
-        <v>144</v>
-      </c>
-      <c r="R5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>1.5</v>
@@ -1249,21 +1221,21 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" t="s">
-        <v>144</v>
-      </c>
-      <c r="R6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="O6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -1272,21 +1244,21 @@
         <v>0.3</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" t="s">
-        <v>157</v>
-      </c>
-      <c r="R7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="O7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
         <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
       </c>
       <c r="C8">
         <v>1.5</v>
@@ -1295,21 +1267,21 @@
         <v>0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" t="s">
-        <v>144</v>
-      </c>
-      <c r="R8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="O8" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1318,21 +1290,21 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>160</v>
-      </c>
-      <c r="P9" t="s">
-        <v>144</v>
-      </c>
-      <c r="R9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="O9" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1340,40 +1312,37 @@
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1381,37 +1350,34 @@
       <c r="D11">
         <v>4</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="P11" t="s">
         <v>26</v>
       </c>
       <c r="Q11" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -1419,34 +1385,31 @@
       <c r="D12">
         <v>5</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" t="s">
-        <v>101</v>
-      </c>
-      <c r="O12" t="s">
-        <v>98</v>
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12" t="s">
+        <v>100</v>
       </c>
       <c r="Q12" t="s">
-        <v>102</v>
-      </c>
-      <c r="R12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>25</v>
@@ -1458,24 +1421,24 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>104</v>
-      </c>
-      <c r="O13" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1484,21 +1447,21 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="P14" t="s">
+        <v>104</v>
       </c>
       <c r="Q14" t="s">
-        <v>106</v>
-      </c>
-      <c r="R14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1510,21 +1473,21 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="P15" t="s">
+        <v>104</v>
       </c>
       <c r="Q15" t="s">
         <v>106</v>
       </c>
-      <c r="R15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -1536,27 +1499,27 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>104</v>
-      </c>
-      <c r="M16" t="s">
-        <v>101</v>
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>102</v>
+      </c>
+      <c r="L16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" t="s">
+        <v>108</v>
       </c>
       <c r="Q16" t="s">
-        <v>110</v>
-      </c>
-      <c r="R16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -1568,24 +1531,24 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="N17" t="s">
+        <v>115</v>
       </c>
       <c r="O17" t="s">
-        <v>117</v>
-      </c>
-      <c r="P17" t="s">
-        <v>26</v>
-      </c>
-      <c r="R17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1594,44 +1557,44 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="s">
-        <v>144</v>
-      </c>
-      <c r="R18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>146</v>
-      </c>
-      <c r="R19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20">
         <v>0.6</v>
@@ -1640,38 +1603,38 @@
         <v>0.8</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
-      </c>
-      <c r="R20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="O21" t="s">
+        <v>172</v>
       </c>
       <c r="P21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q21" t="s">
-        <v>178</v>
-      </c>
-      <c r="R21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C22">
         <v>0.3</v>
@@ -1680,27 +1643,27 @@
         <v>0.3</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="N22" t="s">
+        <v>169</v>
       </c>
       <c r="O22" t="s">
+        <v>175</v>
+      </c>
+      <c r="P22" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q22" t="s">
         <v>174</v>
       </c>
-      <c r="P22" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>170</v>
-      </c>
-      <c r="R22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23">
         <v>0.2</v>
@@ -1709,67 +1672,67 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="N23" t="s">
+        <v>177</v>
       </c>
       <c r="O23" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="Q23" t="s">
-        <v>178</v>
-      </c>
-      <c r="R23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24">
         <v>0.2</v>
       </c>
       <c r="H24" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="N24" t="s">
+        <v>180</v>
       </c>
       <c r="O24" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="Q24" t="s">
-        <v>178</v>
-      </c>
-      <c r="R24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>92</v>
-      </c>
-      <c r="P25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="O25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
         <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
       </c>
       <c r="C26">
         <v>0.3</v>
@@ -1778,21 +1741,21 @@
         <v>0.3</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
-      </c>
-      <c r="P26" t="s">
-        <v>144</v>
-      </c>
-      <c r="R26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="O26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C27">
         <v>0.3</v>
@@ -1801,41 +1764,41 @@
         <v>0.3</v>
       </c>
       <c r="H27" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="P27" t="s">
+        <v>173</v>
       </c>
       <c r="Q27" t="s">
-        <v>178</v>
-      </c>
-      <c r="R27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
         <v>75</v>
       </c>
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
       <c r="H28" t="s">
-        <v>167</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="P28" t="s">
-        <v>144</v>
-      </c>
-      <c r="R28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29">
         <v>0.8</v>
@@ -1844,21 +1807,21 @@
         <v>0.3</v>
       </c>
       <c r="H29" t="s">
-        <v>167</v>
-      </c>
-      <c r="P29" t="s">
-        <v>184</v>
-      </c>
-      <c r="R29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="O29" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -1866,34 +1829,31 @@
       <c r="D30">
         <v>3</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
       <c r="G30">
         <v>1</v>
       </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
       <c r="L30" t="s">
-        <v>205</v>
-      </c>
-      <c r="M30" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="O30" t="s">
+        <v>24</v>
       </c>
       <c r="P30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q30" t="s">
-        <v>29</v>
-      </c>
-      <c r="R30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -1904,31 +1864,28 @@
       <c r="E31">
         <v>2</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
       <c r="G31">
         <v>1</v>
       </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
       <c r="L31" t="s">
-        <v>205</v>
-      </c>
-      <c r="M31" t="s">
-        <v>31</v>
-      </c>
-      <c r="P31" t="s">
-        <v>26</v>
-      </c>
-      <c r="R31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="O31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>40</v>
@@ -1939,28 +1896,28 @@
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>1</v>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>96</v>
       </c>
       <c r="O32" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="P32" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q32" t="s">
         <v>112</v>
       </c>
-      <c r="Q32" t="s">
-        <v>113</v>
-      </c>
-      <c r="R32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
         <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
       </c>
       <c r="C33">
         <v>20</v>
@@ -1968,19 +1925,19 @@
       <c r="D33">
         <v>5</v>
       </c>
-      <c r="P33" t="s">
-        <v>115</v>
-      </c>
-      <c r="R33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O33" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -1988,22 +1945,25 @@
       <c r="D34">
         <v>5</v>
       </c>
-      <c r="L34" t="s">
-        <v>45</v>
-      </c>
-      <c r="P34" t="s">
-        <v>26</v>
-      </c>
-      <c r="R34" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -2011,22 +1971,25 @@
       <c r="D35">
         <v>4</v>
       </c>
-      <c r="L35" t="s">
-        <v>45</v>
-      </c>
-      <c r="P35" t="s">
-        <v>26</v>
-      </c>
-      <c r="R35" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>18</v>
@@ -2034,22 +1997,22 @@
       <c r="D36">
         <v>7</v>
       </c>
-      <c r="L36" t="s">
-        <v>45</v>
-      </c>
-      <c r="P36" t="s">
-        <v>26</v>
-      </c>
-      <c r="R36" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -2057,39 +2020,42 @@
       <c r="D37">
         <v>5</v>
       </c>
-      <c r="L37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P37" t="s">
-        <v>26</v>
-      </c>
-      <c r="R37" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="O38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="L38" t="s">
-        <v>45</v>
-      </c>
-      <c r="P38" t="s">
-        <v>26</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>4.5</v>
@@ -2100,51 +2066,48 @@
       <c r="E39">
         <v>4</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="L39" t="s">
-        <v>45</v>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>118</v>
       </c>
       <c r="O39" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="P39" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="Q39" t="s">
-        <v>121</v>
-      </c>
-      <c r="R39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
-      <c r="L40" t="s">
-        <v>123</v>
-      </c>
-      <c r="P40" t="s">
-        <v>124</v>
-      </c>
-      <c r="R40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="O40" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
         <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>45</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -2153,21 +2116,21 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="L41" t="s">
-        <v>45</v>
-      </c>
-      <c r="R41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42">
         <v>12</v>
@@ -2175,97 +2138,97 @@
       <c r="D42">
         <v>10</v>
       </c>
-      <c r="L42" t="s">
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P42" t="s">
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
         <v>127</v>
       </c>
-      <c r="R42" t="s">
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>24</v>
+      </c>
+      <c r="P44" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="L43" t="s">
-        <v>45</v>
-      </c>
-      <c r="P43" t="s">
-        <v>26</v>
-      </c>
-      <c r="R43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="O45" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="K44" t="s">
-        <v>130</v>
-      </c>
-      <c r="L44" t="s">
-        <v>45</v>
-      </c>
-      <c r="P44" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>131</v>
-      </c>
-      <c r="R44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="L45" t="s">
-        <v>45</v>
-      </c>
-      <c r="P45" t="s">
-        <v>26</v>
-      </c>
-      <c r="R45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -2273,71 +2236,71 @@
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="L46" t="s">
-        <v>45</v>
-      </c>
-      <c r="P46" t="s">
-        <v>26</v>
-      </c>
-      <c r="R46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="L47" t="s">
-        <v>45</v>
-      </c>
-      <c r="P47" t="s">
-        <v>26</v>
-      </c>
-      <c r="R47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="L48" t="s">
-        <v>45</v>
-      </c>
-      <c r="P48" t="s">
-        <v>138</v>
-      </c>
-      <c r="R48" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49">
         <v>4.5</v>
@@ -2345,22 +2308,22 @@
       <c r="D49">
         <v>4.5</v>
       </c>
-      <c r="L49" t="s">
-        <v>45</v>
-      </c>
-      <c r="P49" t="s">
-        <v>26</v>
-      </c>
-      <c r="R49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2368,22 +2331,22 @@
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="L50" t="s">
-        <v>45</v>
-      </c>
-      <c r="P50" t="s">
-        <v>26</v>
-      </c>
-      <c r="R50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -2391,93 +2354,87 @@
       <c r="D51">
         <v>3</v>
       </c>
-      <c r="L51" t="s">
-        <v>45</v>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>24</v>
       </c>
       <c r="P51" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>140</v>
-      </c>
-      <c r="R51" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q53" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="L52" t="s">
-        <v>45</v>
-      </c>
-      <c r="P52" t="s">
-        <v>26</v>
-      </c>
-      <c r="R52" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="L53" t="s">
-        <v>45</v>
-      </c>
-      <c r="P53" t="s">
-        <v>26</v>
-      </c>
-      <c r="R53" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56">
         <v>0.8</v>
@@ -2485,30 +2442,30 @@
       <c r="D56">
         <v>0.6</v>
       </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="P56" t="s">
-        <v>148</v>
-      </c>
-      <c r="R56" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2516,22 +2473,22 @@
       <c r="D58">
         <v>0.5</v>
       </c>
+      <c r="N58" t="s">
+        <v>159</v>
+      </c>
       <c r="O58" t="s">
-        <v>164</v>
-      </c>
-      <c r="P58" t="s">
-        <v>165</v>
-      </c>
-      <c r="R58" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59">
         <v>0.6</v>
@@ -2539,93 +2496,93 @@
       <c r="D59">
         <v>0.3</v>
       </c>
-      <c r="P59" t="s">
-        <v>144</v>
-      </c>
-      <c r="R59" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O59" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>141</v>
+      </c>
+      <c r="P61" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="P61" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>170</v>
-      </c>
-      <c r="R61" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62">
         <v>0.5</v>
       </c>
+      <c r="N62" t="s">
+        <v>167</v>
+      </c>
       <c r="O62" t="s">
-        <v>172</v>
-      </c>
-      <c r="P62" t="s">
-        <v>157</v>
-      </c>
-      <c r="R62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" t="s">
         <v>81</v>
-      </c>
-      <c r="B63" t="s">
-        <v>83</v>
       </c>
       <c r="C63">
         <v>0.5</v>
       </c>
+      <c r="N63" t="s">
+        <v>169</v>
+      </c>
       <c r="O63" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="P63" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="Q63" t="s">
-        <v>170</v>
-      </c>
-      <c r="R63" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64">
         <v>0.45</v>
@@ -2633,79 +2590,79 @@
       <c r="D64">
         <v>1.5</v>
       </c>
-      <c r="P64" t="s">
-        <v>157</v>
-      </c>
-      <c r="R64" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O64" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C65">
         <v>30</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="N65" t="s">
+        <v>185</v>
       </c>
       <c r="O65" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q65" t="s">
-        <v>191</v>
-      </c>
-      <c r="R65" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C66">
         <v>3</v>
       </c>
-      <c r="P66" t="s">
-        <v>144</v>
-      </c>
-      <c r="R66" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O66" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C67">
         <v>15</v>
       </c>
-      <c r="P67" t="s">
-        <v>177</v>
-      </c>
-      <c r="R67" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O67" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" t="s">
         <v>96</v>
-      </c>
-      <c r="B68" t="s">
-        <v>98</v>
       </c>
       <c r="C68">
         <v>3.5</v>
@@ -2713,43 +2670,43 @@
       <c r="D68">
         <v>1.5</v>
       </c>
+      <c r="N68" t="s">
+        <v>190</v>
+      </c>
       <c r="O68" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P68" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q68" t="s">
-        <v>197</v>
-      </c>
-      <c r="R68" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C69">
         <v>6</v>
       </c>
-      <c r="P69" t="s">
-        <v>196</v>
-      </c>
-      <c r="R69" t="s">
-        <v>198</v>
+      <c r="O69" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q69">
     <sortCondition ref="H1:H69"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="R51" r:id="rId1" xr:uid="{FF83E598-92FF-A442-B96C-B3C2A8DFC272}"/>
-    <hyperlink ref="R38" r:id="rId2" xr:uid="{62A838B4-EC30-EE44-90D2-675DE6762C27}"/>
+    <hyperlink ref="Q51" r:id="rId1" xr:uid="{FF83E598-92FF-A442-B96C-B3C2A8DFC272}"/>
+    <hyperlink ref="Q38" r:id="rId2" xr:uid="{62A838B4-EC30-EE44-90D2-675DE6762C27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/skogshage_planter.xlsx
+++ b/data/skogshage_planter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/athanasm/R-stuff/skogshage/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E565B487-AFDA-EF49-80FE-9C3C67AD0E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098EDF00-FA33-F045-A513-45F3DF78E574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17020" xr2:uid="{6B61303F-6C63-1240-A2E5-762A1998790A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="60260" windowHeight="21360" xr2:uid="{6B61303F-6C63-1240-A2E5-762A1998790A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,9 +213,6 @@
     <t>Pors </t>
   </si>
   <si>
-    <t>Fargegnist (?) </t>
-  </si>
-  <si>
     <t>Agurkurt </t>
   </si>
   <si>
@@ -655,6 +652,9 @@
   </si>
   <si>
     <t>pollination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fargegnist </t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,18 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1026,10 +1037,10 @@
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1070,7 +1081,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1094,7 +1105,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -1108,366 +1119,342 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J2" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="N2" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="O2" t="s">
-        <v>145</v>
+        <v>174</v>
+      </c>
+      <c r="P2" t="s">
+        <v>164</v>
       </c>
       <c r="Q2" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>103</v>
       </c>
       <c r="Q3" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>1.5</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="s">
-        <v>204</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" t="s">
-        <v>68</v>
+        <v>95</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>184</v>
       </c>
       <c r="O5" t="s">
-        <v>141</v>
+        <v>171</v>
+      </c>
+      <c r="P5" t="s">
+        <v>185</v>
       </c>
       <c r="Q5" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O6" t="s">
-        <v>141</v>
+        <v>89</v>
+      </c>
+      <c r="P6" t="s">
+        <v>172</v>
       </c>
       <c r="Q6" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>152</v>
+        <v>140</v>
+      </c>
+      <c r="P7" t="s">
+        <v>164</v>
       </c>
       <c r="Q7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C8">
-        <v>1.5</v>
-      </c>
-      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="H8" t="s">
-        <v>68</v>
+      <c r="N8" t="s">
+        <v>166</v>
       </c>
       <c r="O8" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="Q8" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>155</v>
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
       </c>
       <c r="O9" t="s">
-        <v>141</v>
+        <v>24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
       </c>
       <c r="Q9" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
+      <c r="A10" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
         <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="Q10" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>20</v>
+      <c r="A11" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" t="s">
-        <v>115</v>
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="Q11" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N12" t="s">
-        <v>96</v>
-      </c>
-      <c r="P12" t="s">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C13">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="N13" t="s">
-        <v>96</v>
+        <v>179</v>
+      </c>
+      <c r="O13" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13" t="s">
+        <v>172</v>
       </c>
       <c r="Q13" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>103</v>
+        <v>43</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1475,25 +1462,28 @@
       <c r="H15" t="s">
         <v>16</v>
       </c>
-      <c r="P15" t="s">
-        <v>104</v>
+      <c r="N15" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" t="s">
+        <v>24</v>
       </c>
       <c r="Q15" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
+      <c r="A16" t="s">
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1501,31 +1491,34 @@
       <c r="H16" t="s">
         <v>16</v>
       </c>
-      <c r="I16" t="s">
-        <v>102</v>
-      </c>
       <c r="L16" t="s">
-        <v>99</v>
+        <v>17</v>
+      </c>
+      <c r="N16" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="Q16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
+      <c r="A17" t="s">
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1533,45 +1526,48 @@
       <c r="H17" t="s">
         <v>16</v>
       </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
       <c r="N17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O17" t="s">
         <v>24</v>
       </c>
+      <c r="P17" t="s">
+        <v>25</v>
+      </c>
       <c r="Q17" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="O18" t="s">
-        <v>141</v>
+        <v>171</v>
+      </c>
+      <c r="P18" t="s">
+        <v>172</v>
       </c>
       <c r="Q18" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1583,396 +1579,360 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C20">
-        <v>0.6</v>
-      </c>
-      <c r="D20">
-        <v>0.8</v>
-      </c>
-      <c r="H20" t="s">
-        <v>90</v>
+        <v>6</v>
+      </c>
+      <c r="O20" t="s">
+        <v>190</v>
       </c>
       <c r="Q20" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" t="s">
-        <v>90</v>
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>172</v>
-      </c>
-      <c r="P21" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="Q21" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C22">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D22">
-        <v>0.3</v>
-      </c>
-      <c r="H22" t="s">
-        <v>90</v>
-      </c>
-      <c r="N22" t="s">
-        <v>169</v>
+        <v>0.6</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>175</v>
-      </c>
-      <c r="P22" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="Q22" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23">
-        <v>0.2</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
-      </c>
-      <c r="N23" t="s">
-        <v>177</v>
+        <v>161</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>141</v>
-      </c>
-      <c r="P23" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="Q23" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C24">
-        <v>0.2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
       </c>
       <c r="N24" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="O24" t="s">
-        <v>141</v>
-      </c>
-      <c r="P24" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="Q24" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C26">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D26">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
-      </c>
-      <c r="O26" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="Q26" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="C27">
-        <v>0.3</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>0.3</v>
-      </c>
-      <c r="H27" t="s">
-        <v>90</v>
-      </c>
-      <c r="P27" t="s">
-        <v>173</v>
+        <v>7</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>24</v>
       </c>
       <c r="Q27" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" t="s">
-        <v>162</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
       </c>
       <c r="O28" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="Q28" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="D29">
         <v>0.3</v>
       </c>
       <c r="H29" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="O29" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="Q29" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="G30">
         <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="O30" t="s">
         <v>24</v>
       </c>
-      <c r="P30" t="s">
-        <v>27</v>
-      </c>
       <c r="Q30" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="G31">
         <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="O31" t="s">
         <v>24</v>
       </c>
       <c r="Q31" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C32">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>12</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s">
-        <v>96</v>
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
       </c>
       <c r="O32" t="s">
-        <v>110</v>
-      </c>
-      <c r="P32" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="Q32" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
       </c>
       <c r="O33" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="Q33" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34">
-        <v>6</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
+        <v>67</v>
+      </c>
+      <c r="H34" t="s">
+        <v>67</v>
       </c>
       <c r="O34" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="Q34" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -1981,64 +1941,79 @@
         <v>24</v>
       </c>
       <c r="Q35" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D36">
-        <v>7</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>95</v>
       </c>
       <c r="O36" t="s">
-        <v>24</v>
+        <v>109</v>
+      </c>
+      <c r="P36" t="s">
+        <v>110</v>
       </c>
       <c r="Q36" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
+        <v>1.5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>189</v>
       </c>
       <c r="O37" t="s">
-        <v>24</v>
+        <v>190</v>
+      </c>
+      <c r="P37" t="s">
+        <v>191</v>
       </c>
       <c r="Q37" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -2046,361 +2021,376 @@
       <c r="O38" t="s">
         <v>24</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>203</v>
+      <c r="Q38" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C39">
-        <v>4.5</v>
+        <v>0.45</v>
       </c>
       <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
-        <v>4</v>
-      </c>
-      <c r="K39">
-        <v>2</v>
-      </c>
-      <c r="N39" t="s">
-        <v>118</v>
+        <v>1.5</v>
       </c>
       <c r="O39" t="s">
-        <v>24</v>
-      </c>
-      <c r="P39" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="Q39" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C40">
-        <v>7</v>
-      </c>
-      <c r="K40">
-        <v>3</v>
+        <v>0.5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>168</v>
       </c>
       <c r="O40" t="s">
-        <v>121</v>
+        <v>151</v>
+      </c>
+      <c r="P40" t="s">
+        <v>164</v>
       </c>
       <c r="Q40" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="K41">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>101</v>
+      </c>
+      <c r="N41" t="s">
+        <v>95</v>
       </c>
       <c r="Q41" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D42">
         <v>10</v>
       </c>
-      <c r="K42">
-        <v>2</v>
-      </c>
-      <c r="O42" t="s">
-        <v>124</v>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>101</v>
+      </c>
+      <c r="L42" t="s">
+        <v>98</v>
+      </c>
+      <c r="P42" t="s">
+        <v>107</v>
       </c>
       <c r="Q42" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>2</v>
-      </c>
-      <c r="O43" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" t="s">
+        <v>98</v>
+      </c>
+      <c r="N43" t="s">
+        <v>95</v>
+      </c>
+      <c r="P43" t="s">
+        <v>99</v>
       </c>
       <c r="Q43" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>127</v>
-      </c>
-      <c r="K44">
-        <v>2</v>
-      </c>
-      <c r="O44" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
       </c>
       <c r="P44" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="Q44" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>29</v>
       </c>
       <c r="O45" t="s">
         <v>24</v>
       </c>
       <c r="Q45" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="K46">
         <v>3</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>2</v>
-      </c>
       <c r="O46" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="Q46" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O47" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="Q47" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="K48">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>204</v>
+      </c>
+      <c r="J48" t="s">
+        <v>146</v>
+      </c>
+      <c r="N48" t="s">
+        <v>145</v>
       </c>
       <c r="O48" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q48" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C49">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="D49">
-        <v>4.5</v>
-      </c>
-      <c r="K49">
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="H49" t="s">
+        <v>161</v>
       </c>
       <c r="O49" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="Q49" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
       </c>
       <c r="K50">
         <v>2</v>
       </c>
-      <c r="O50" t="s">
-        <v>24</v>
-      </c>
       <c r="Q50" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="K51">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>89</v>
+      </c>
+      <c r="N51" t="s">
+        <v>176</v>
       </c>
       <c r="O51" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="P51" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>136</v>
+        <v>172</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="K52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O52" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="Q52" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="F53">
         <v>2</v>
       </c>
       <c r="K53">
@@ -2410,303 +2400,327 @@
         <v>24</v>
       </c>
       <c r="Q53" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>126</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>24</v>
+      </c>
+      <c r="P55" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C56">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>0.6</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
       </c>
       <c r="O56" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>156</v>
+        <v>24</v>
+      </c>
+      <c r="P56" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="C57">
+        <v>0.6</v>
+      </c>
+      <c r="D57">
+        <v>0.3</v>
+      </c>
+      <c r="O57" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D58">
-        <v>0.5</v>
-      </c>
-      <c r="N58" t="s">
-        <v>159</v>
-      </c>
-      <c r="O58" t="s">
-        <v>160</v>
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>203</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
       </c>
       <c r="Q58" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C59">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="D59">
-        <v>0.3</v>
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>203</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
       </c>
       <c r="O59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q59" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="C60">
+        <v>0.5</v>
+      </c>
+      <c r="D60">
+        <v>0.3</v>
+      </c>
+      <c r="H60" t="s">
+        <v>67</v>
+      </c>
+      <c r="O60" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
+      <c r="H61" t="s">
+        <v>154</v>
+      </c>
       <c r="O61" t="s">
-        <v>141</v>
-      </c>
-      <c r="P61" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="Q61" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C62">
-        <v>0.5</v>
-      </c>
-      <c r="N62" t="s">
-        <v>167</v>
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
       </c>
       <c r="O62" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="Q62" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C63">
-        <v>0.5</v>
-      </c>
-      <c r="N63" t="s">
-        <v>169</v>
+        <v>1.5</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>67</v>
       </c>
       <c r="O63" t="s">
-        <v>152</v>
-      </c>
-      <c r="P63" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="Q63" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64">
+        <v>15</v>
+      </c>
+      <c r="O64" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" t="s">
+        <v>89</v>
+      </c>
+      <c r="O65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
         <v>80</v>
-      </c>
-      <c r="B64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64">
-        <v>0.45</v>
-      </c>
-      <c r="D64">
-        <v>1.5</v>
-      </c>
-      <c r="O64" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65">
-        <v>30</v>
-      </c>
-      <c r="F65">
-        <v>7</v>
-      </c>
-      <c r="N65" t="s">
-        <v>185</v>
-      </c>
-      <c r="O65" t="s">
-        <v>172</v>
-      </c>
-      <c r="P65" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66">
-        <v>3</v>
-      </c>
-      <c r="O66" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B67" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67">
-        <v>15</v>
-      </c>
-      <c r="O67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B68" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68">
-        <v>3.5</v>
-      </c>
-      <c r="D68">
-        <v>1.5</v>
-      </c>
-      <c r="N68" t="s">
-        <v>190</v>
-      </c>
-      <c r="O68" t="s">
-        <v>191</v>
-      </c>
-      <c r="P68" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B69" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69">
-        <v>6</v>
-      </c>
-      <c r="O69" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q69">
-    <sortCondition ref="H1:H69"/>
+    <sortCondition ref="Q1:Q69"/>
   </sortState>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="Q51" r:id="rId1" xr:uid="{FF83E598-92FF-A442-B96C-B3C2A8DFC272}"/>
-    <hyperlink ref="Q38" r:id="rId2" xr:uid="{62A838B4-EC30-EE44-90D2-675DE6762C27}"/>
+    <hyperlink ref="Q56" r:id="rId1" xr:uid="{FF83E598-92FF-A442-B96C-B3C2A8DFC272}"/>
+    <hyperlink ref="Q14" r:id="rId2" xr:uid="{62A838B4-EC30-EE44-90D2-675DE6762C27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/skogshage_planter.xlsx
+++ b/data/skogshage_planter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/athanasm/R-stuff/skogshage/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098EDF00-FA33-F045-A513-45F3DF78E574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AC4C5B-FEB2-FA4B-8BD8-4FBF73AB12ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="60260" windowHeight="21360" xr2:uid="{6B61303F-6C63-1240-A2E5-762A1998790A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="207">
   <si>
     <t>url</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Italiensk or </t>
   </si>
   <si>
-    <t>Sikta or </t>
-  </si>
-  <si>
     <t>Svart or </t>
   </si>
   <si>
@@ -363,18 +360,12 @@
     <t>companions</t>
   </si>
   <si>
-    <t>leaves, flowers, syrup</t>
-  </si>
-  <si>
     <t>aggressive pruning, can be used as a hedge</t>
   </si>
   <si>
     <t>http://www.efferus.no/Tilia%20cordata.html</t>
   </si>
   <si>
-    <t>syrup</t>
-  </si>
-  <si>
     <t>https://www.efferus.no/Betula%20papyrifera.html</t>
   </si>
   <si>
@@ -447,9 +438,6 @@
     <t>likes to move</t>
   </si>
   <si>
-    <t>http://www.efferus.no/Vaccinium%20corymbosum.html</t>
-  </si>
-  <si>
     <t>https://www.efferus.no/Vaccinium%20corymbosum.html</t>
   </si>
   <si>
@@ -655,6 +643,18 @@
   </si>
   <si>
     <t xml:space="preserve">Fargegnist </t>
+  </si>
+  <si>
+    <t>https://www.efferus.no/Vaccinium%20myrtillus.html</t>
+  </si>
+  <si>
+    <t>Sitka or </t>
+  </si>
+  <si>
+    <t>sap</t>
+  </si>
+  <si>
+    <t>leaves, flowers, sap</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1037,10 @@
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomRight" activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1081,7 +1081,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1105,7 +1105,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -1119,10 +1119,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>0.3</v>
@@ -1131,27 +1131,27 @@
         <v>0.3</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1166,18 +1166,18 @@
         <v>16</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>1.5</v>
@@ -1186,21 +1186,21 @@
         <v>0.5</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -1209,24 +1209,24 @@
         <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
         <v>88</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
       </c>
       <c r="C6">
         <v>0.3</v>
@@ -1235,21 +1235,21 @@
         <v>0.3</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1258,33 +1258,33 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>0.5</v>
       </c>
       <c r="N8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -1292,7 +1292,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>4.5</v>
@@ -1339,24 +1339,24 @@
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
         <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -1368,18 +1368,18 @@
         <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1397,41 +1397,41 @@
         <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <v>0.2</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1440,15 +1440,15 @@
         <v>24</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -1463,13 +1463,13 @@
         <v>16</v>
       </c>
       <c r="N15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O15" t="s">
         <v>24</v>
       </c>
       <c r="Q15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -1477,7 +1477,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1495,7 +1495,7 @@
         <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O16" t="s">
         <v>24</v>
@@ -1512,7 +1512,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1533,7 +1533,7 @@
         <v>17</v>
       </c>
       <c r="N17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O17" t="s">
         <v>24</v>
@@ -1547,27 +1547,27 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1579,35 +1579,35 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
         <v>94</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
       <c r="O20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1625,15 +1625,15 @@
         <v>24</v>
       </c>
       <c r="Q21" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22">
         <v>0.8</v>
@@ -1645,38 +1645,38 @@
         <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1685,18 +1685,21 @@
         <v>0.5</v>
       </c>
       <c r="N24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O24" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="P24" t="s">
+        <v>205</v>
       </c>
       <c r="Q24" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -1714,18 +1717,18 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26">
         <v>0.6</v>
@@ -1734,18 +1737,18 @@
         <v>0.8</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>18</v>
@@ -1760,15 +1763,15 @@
         <v>24</v>
       </c>
       <c r="Q27" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -1786,15 +1789,15 @@
         <v>24</v>
       </c>
       <c r="Q28" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29">
         <v>0.3</v>
@@ -1803,21 +1806,21 @@
         <v>0.3</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1832,15 +1835,15 @@
         <v>24</v>
       </c>
       <c r="Q30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1855,15 +1858,15 @@
         <v>24</v>
       </c>
       <c r="Q31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1878,15 +1881,15 @@
         <v>24</v>
       </c>
       <c r="Q32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -1901,32 +1904,32 @@
         <v>24</v>
       </c>
       <c r="Q33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35">
         <v>4.5</v>
@@ -1941,15 +1944,15 @@
         <v>24</v>
       </c>
       <c r="Q35" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>40</v>
@@ -1964,24 +1967,24 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O36" t="s">
+        <v>206</v>
+      </c>
+      <c r="P36" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q36" t="s">
         <v>109</v>
-      </c>
-      <c r="P36" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37">
         <v>3.5</v>
@@ -1990,30 +1993,30 @@
         <v>1.5</v>
       </c>
       <c r="N37" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O37" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q37" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -2022,15 +2025,15 @@
         <v>24</v>
       </c>
       <c r="Q38" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
         <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>80</v>
       </c>
       <c r="C39">
         <v>0.45</v>
@@ -2039,33 +2042,33 @@
         <v>1.5</v>
       </c>
       <c r="O39" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q39" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40">
         <v>0.5</v>
       </c>
       <c r="N40" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q40" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -2073,7 +2076,7 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41">
         <v>25</v>
@@ -2088,21 +2091,21 @@
         <v>16</v>
       </c>
       <c r="I41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42">
         <v>25</v>
@@ -2117,16 +2120,16 @@
         <v>16</v>
       </c>
       <c r="I42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -2134,7 +2137,7 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>18</v>
@@ -2149,24 +2152,24 @@
         <v>16</v>
       </c>
       <c r="L43" t="s">
+        <v>97</v>
+      </c>
+      <c r="N43" t="s">
+        <v>94</v>
+      </c>
+      <c r="P43" t="s">
         <v>98</v>
       </c>
-      <c r="N43" t="s">
+      <c r="Q43" t="s">
         <v>95</v>
-      </c>
-      <c r="P43" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -2178,10 +2181,10 @@
         <v>16</v>
       </c>
       <c r="P44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -2189,7 +2192,7 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -2213,15 +2216,15 @@
         <v>24</v>
       </c>
       <c r="Q45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -2230,18 +2233,18 @@
         <v>3</v>
       </c>
       <c r="O46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -2250,18 +2253,18 @@
         <v>5</v>
       </c>
       <c r="O47" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="Q47" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2270,27 +2273,27 @@
         <v>0.5</v>
       </c>
       <c r="H48" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J48" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N48" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O48" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49">
         <v>0.8</v>
@@ -2299,21 +2302,21 @@
         <v>0.3</v>
       </c>
       <c r="H49" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O49" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q49" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -2328,15 +2331,15 @@
         <v>2</v>
       </c>
       <c r="Q50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>0.2</v>
@@ -2345,44 +2348,44 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N51" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O51" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q51" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="O52" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q52" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -2400,15 +2403,15 @@
         <v>24</v>
       </c>
       <c r="Q53" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -2420,18 +2423,18 @@
         <v>2</v>
       </c>
       <c r="O54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q54" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -2440,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -2449,18 +2452,18 @@
         <v>24</v>
       </c>
       <c r="P55" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q55" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -2475,18 +2478,18 @@
         <v>24</v>
       </c>
       <c r="P56" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
         <v>73</v>
-      </c>
-      <c r="B57" t="s">
-        <v>74</v>
       </c>
       <c r="C57">
         <v>0.6</v>
@@ -2495,18 +2498,18 @@
         <v>0.3</v>
       </c>
       <c r="O57" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q57" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58">
         <v>1.5</v>
@@ -2515,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -2524,15 +2527,15 @@
         <v>1</v>
       </c>
       <c r="Q58" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59">
         <v>1.5</v>
@@ -2541,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -2550,18 +2553,18 @@
         <v>1</v>
       </c>
       <c r="O59" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q59" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60">
         <v>0.5</v>
@@ -2570,22 +2573,22 @@
         <v>0.3</v>
       </c>
       <c r="H60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O60" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q60" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
         <v>66</v>
       </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
       <c r="C61">
         <v>2</v>
       </c>
@@ -2593,21 +2596,21 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O61" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" t="s">
         <v>54</v>
-      </c>
-      <c r="B62" t="s">
-        <v>55</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -2622,15 +2625,15 @@
         <v>24</v>
       </c>
       <c r="Q62" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>1.5</v>
@@ -2639,49 +2642,49 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O63" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q63" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64">
         <v>15</v>
       </c>
       <c r="O64" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q64" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
@@ -2697,18 +2700,18 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
